--- a/project_files/project_schedule.xlsx
+++ b/project_files/project_schedule.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="28720" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview  Notes" sheetId="1" r:id="rId1"/>
+    <sheet name="Progress Notes" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>car door opener</t>
   </si>
@@ -118,6 +119,18 @@
   </si>
   <si>
     <t>have to learn about developing / modifying kernel</t>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Installed Oh-my-zsh , homebrew, solarized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -154,11 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,8 +505,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -500,7 +514,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="39">
@@ -781,13 +795,55 @@
       <c r="I22" s="1"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>39939</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/project_files/project_schedule.xlsx
+++ b/project_files/project_schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="28720" windowHeight="17560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Overview  Notes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>car door opener</t>
   </si>
@@ -122,23 +122,36 @@
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Notes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Installed Oh-my-zsh , homebrew, solarized</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5/7/13: right now using beaglebone, </t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -167,12 +180,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,8 +521,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -514,6 +530,7 @@
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" customWidth="1"/>
     <col min="5" max="5" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -521,7 +538,7 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -553,7 +570,9 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -561,7 +580,7 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1"/>
@@ -678,7 +697,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="39">
+    <row r="14" spans="1:9">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -795,8 +814,7 @@
       <c r="I22" s="1"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -809,10 +827,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -836,8 +854,13 @@
         <v>35</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
